--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -240,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +628,12 @@
       <c r="D3">
         <v>0.5</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K11" si="0">SUM(C3:J3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -638,9 +642,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,9 +662,12 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -662,7 +675,8 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5"/>
+      <c r="D6" s="18">
         <v>0.5</v>
       </c>
       <c r="K6" s="5">
@@ -746,11 +760,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -777,7 +791,7 @@
       </c>
       <c r="C15" s="16">
         <f>SUM(C12:J12)</f>
-        <v>10.5</v>
+        <v>31</v>
       </c>
       <c r="D15" s="17"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marcus D\GitHub\Dogfight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus D\Documents\GitHub\Dogfight\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Marcus" sheetId="4" r:id="rId1"/>
     <sheet name="Gustav" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,7 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,23 +570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4">
         <v>14</v>
       </c>
@@ -616,7 +616,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -637,7 +637,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,13 +648,19 @@
       <c r="F4">
         <v>12</v>
       </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -671,12 +677,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="18">
+      <c r="D6" s="9">
         <v>0.5</v>
       </c>
       <c r="K6" s="5">
@@ -685,7 +691,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,7 +702,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,7 +713,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,7 +724,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -729,7 +735,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -767,12 +773,12 @@
         <v>13.5</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(G4:G11)</f>
+        <v>11</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -789,11 +795,11 @@
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>31</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -824,23 +830,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4">
         <v>14</v>
       </c>
@@ -870,7 +876,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -885,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,7 +902,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -910,7 +916,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -921,7 +927,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +938,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -943,7 +949,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -954,7 +960,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -965,7 +971,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1025,11 +1031,11 @@
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
         <v>6</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -652,11 +652,11 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,11 +652,11 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,11 +652,14 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,11 +781,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
@@ -797,7 +800,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus D\Documents\GitHub\Dogfight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marcus D\GitHub\Dogfight\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Marcus" sheetId="4" r:id="rId1"/>
     <sheet name="Gustav" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,11 +655,11 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>68</v>
+        <v>74.5</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marcus D\GitHub\Dogfight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus D\Documents\GitHub\Dogfight\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Marcus" sheetId="4" r:id="rId1"/>
     <sheet name="Gustav" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,11 +655,11 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>74.5</v>
+        <v>83</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus D\Documents\GitHub\Dogfight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marcus D\GitHub\Dogfight\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Marcus" sheetId="4" r:id="rId1"/>
     <sheet name="Gustav" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,11 +655,11 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" s="18"/>
     </row>

--- a/Document/Tidsrapportering.xlsx
+++ b/Document/Tidsrapportering.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marcus D\GitHub\Dogfight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus D\Documents\GitHub\Dogfight\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Marcus" sheetId="4" r:id="rId1"/>
     <sheet name="Gustav" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,9 +657,12 @@
       <c r="I4">
         <v>29</v>
       </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -800,7 +803,7 @@
       </c>
       <c r="C15" s="17">
         <f>SUM(C12:J12)</f>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D15" s="18"/>
     </row>
